--- a/Design_Guide/Thermal/Thermal.xlsx
+++ b/Design_Guide/Thermal/Thermal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sylvain Rouland\Desktop\PCB\Design_Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sylvain Rouland\Desktop\PCB\Design_Guide\Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A92231D-A8A6-4625-A9AD-27575727962A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB910EC0-9AD8-42E8-A9C7-5B1EDA2F1182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +542,7 @@
   <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -557,33 +557,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -607,13 +607,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5">
         <f>(C2/C5)/(C3*C4/(10^4))</f>
-        <v>71.428571428571431</v>
+        <v>71.428571428571416</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -640,7 +640,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -652,7 +652,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -697,13 +697,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2">
         <f>(1/C13)/(C2*C3)</f>
-        <v>62.5</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -716,7 +716,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -742,24 +742,24 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5">
         <f>(C16/(10*C17))/(C2*C3)</f>
-        <v>4.0760869565217392</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -767,7 +767,7 @@
       </c>
       <c r="B22" s="4">
         <f>C6+C14</f>
-        <v>133.92857142857144</v>
+        <v>111.42857142857142</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -778,11 +778,11 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -811,7 +811,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+C6+C14</f>
-        <v>159.68310077846095</v>
+        <v>137.18310077846093</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="B29" s="4">
         <f>B27*B22/(B22+B27)</f>
-        <v>72.838145049846744</v>
+        <v>61.485918212062352</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -852,7 +852,7 @@
   <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="B5">
         <f>(B2-B3)/B4</f>
-        <v>271.73913043478262</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="B9">
         <f>B4*15.29</f>
-        <v>7.0334000000000003</v>
+        <v>7.6449999999999996</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -932,7 +932,7 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -949,7 +949,7 @@
       </c>
       <c r="B15">
         <f>500/(B5-B12)</f>
-        <v>2.1575984990619137</v>
+        <v>3.125</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
